--- a/excel/CharacterData.xlsx
+++ b/excel/CharacterData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geugkkom/Documents/Tsomsomm/lunaria-data/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43505557-F5B2-794F-A3F2-C6BA3E08F6A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22EC16B3-DDA8-104F-9BBE-8E78BEEA7270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="29400" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,10 +34,6 @@
   </si>
   <si>
     <t>Name</t>
-  </si>
-  <si>
-    <t>IconResourceKey</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>local_string;[Id]</t>
@@ -97,6 +93,10 @@
     <t>character_test_01</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>ResourceKey</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -105,7 +105,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$₩-412]#,##0.00"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -150,12 +150,6 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -212,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -222,7 +216,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -446,7 +439,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -461,7 +454,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -474,30 +467,30 @@
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>4</v>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15">
       <c r="A3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="8" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15">
       <c r="A4" s="6"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="8"/>
     </row>
     <row r="5" spans="1:5" ht="15">
       <c r="A5" s="6"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
     </row>
     <row r="6" spans="1:5" ht="13"/>
     <row r="7" spans="1:5" ht="13"/>

--- a/excel/CharacterData.xlsx
+++ b/excel/CharacterData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geugkkom/Documents/Tsomsomm/lunaria-data/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22EC16B3-DDA8-104F-9BBE-8E78BEEA7270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20AC71BF-3F98-024B-A708-D403A5C9EAA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="29400" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>string</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -37,6 +37,10 @@
   </si>
   <si>
     <t>local_string;[Id]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResourceKey</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -51,27 +55,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>테스트용</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>캐릭터아이디</t>
+      <t>새턴</t>
     </r>
     <r>
       <rPr>
@@ -86,15 +70,44 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>테스트용 캐릭터</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>character_test_01</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResourceKey</t>
+    <t>새턴</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>character_saturn</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>슬라임</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬라임</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>character_slime</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -439,7 +452,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -468,24 +481,30 @@
         <v>3</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15">
       <c r="A3" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
+      <c r="A4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="15">
       <c r="A5" s="6"/>

--- a/excel/CharacterData.xlsx
+++ b/excel/CharacterData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geugkkom/Documents/Tsomsomm/lunaria-data/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20AC71BF-3F98-024B-A708-D403A5C9EAA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE06E5CB-F584-C148-B8FE-EE628B13F2AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="29400" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>string</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -108,6 +108,39 @@
   </si>
   <si>
     <t>character_slime</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>리피파이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>리피</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>character_leafy_pie</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -452,7 +485,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -507,9 +540,15 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="15">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
+      <c r="A5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="13"/>
     <row r="7" spans="1:5" ht="13"/>
